--- a/Program/Other/Sharepoint上傳用/沒轉的欄位/LA$CASP.xlsx
+++ b/Program/Other/Sharepoint上傳用/沒轉的欄位/LA$CASP.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\99-資料轉換進度\沒轉的欄位\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDC23D1-C614-4D24-A898-C23561E660A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9985E0-1160-43CB-90CF-6395708215FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="12" windowWidth="10752" windowHeight="11676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$L$1</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="67">
   <si>
     <t>LA$CASP</t>
   </si>
@@ -236,6 +239,18 @@
   </si>
   <si>
     <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式不同的欄位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新系統為文字格式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新系統長度為32</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -615,28 +630,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.25" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="4.75" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="3.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.75" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="44.25" style="2"/>
+    <col min="6" max="6" width="10.625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.75" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="44.25" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -649,8 +666,11 @@
       <c r="F1" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G1" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -666,20 +686,23 @@
       <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>10</v>
+      <c r="G2" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -699,7 +722,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -715,23 +738,23 @@
       <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -747,23 +770,23 @@
       <c r="E5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="H5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -779,23 +802,23 @@
       <c r="E6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="H6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>55</v>
       </c>
@@ -815,7 +838,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -831,23 +854,23 @@
       <c r="E8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="H8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
@@ -863,23 +886,23 @@
       <c r="E9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="H9" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
@@ -895,23 +918,23 @@
       <c r="E10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="H10" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>56</v>
       </c>
@@ -931,7 +954,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
@@ -947,23 +970,23 @@
       <c r="E12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="H12" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="K12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>35</v>
       </c>
@@ -979,23 +1002,23 @@
       <c r="E13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="H13" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="K13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
@@ -1011,23 +1034,23 @@
       <c r="E14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="H14" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="K14" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>57</v>
       </c>
@@ -1043,23 +1066,26 @@
       <c r="E15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>10</v>
+      <c r="G15" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="K15" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="L15" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>42</v>
       </c>
@@ -1075,23 +1101,23 @@
       <c r="E16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="H16" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="K16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="L16" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>45</v>
       </c>
@@ -1107,23 +1133,23 @@
       <c r="E17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="H17" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="K17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="L17" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>61</v>
       </c>
@@ -1143,7 +1169,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>49</v>
       </c>
@@ -1164,6 +1190,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
